--- a/Demo.xlsx
+++ b/Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Madison/Desktop/GitHubDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C3D3E4D-F203-4641-814B-DB7DB29BC64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24703723-4C92-F549-B8CD-8DDC2DFF5279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{F5D24A1E-B18D-D948-AF02-2F58782188C1}"/>
   </bookViews>
@@ -31,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Test</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +388,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3630FD-B824-014E-A9C7-E9BEB564E649}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>